--- a/Data/EC/NIT-9006978112.xlsx
+++ b/Data/EC/NIT-9006978112.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC1A2AB2-15EA-4CBD-85E1-67657014CFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E01E371F-20D4-42CA-849E-8B3ADE3AE4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E4EF90F7-F2EC-4EE8-99ED-4ACB505C4C3E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{193C5640-C43B-44BF-B973-DA9AABB54E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="79">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,184 +71,175 @@
     <t>LUIS ALBERTO CAÑON CHARRASQUIEL</t>
   </si>
   <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1143335775</t>
-  </si>
-  <si>
-    <t>SANDRA MARCELA PASO LARIOS</t>
-  </si>
-  <si>
-    <t>1606</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -347,7 +338,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -360,9 +353,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -562,23 +553,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,10 +597,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +653,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62E99B8-1BDE-71C3-E396-A2AC667F4584}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358AF580-349D-4649-1BA4-041BEABF453D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,8 +1004,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04427798-5DCB-4B23-B358-F6A39872CF12}">
-  <dimension ref="B2:J79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739126F8-2D3B-4612-8FB8-7E8896763AE7}">
+  <dimension ref="B2:J78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1038,7 +1029,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1083,7 +1074,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1115,12 +1106,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1708252</v>
+        <v>1685252</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1131,17 +1122,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1168,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1191,10 +1182,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27083</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1214,10 +1205,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1237,10 +1228,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1260,10 +1251,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1283,10 +1274,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1306,10 +1297,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1329,10 +1320,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1352,10 +1343,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1375,10 +1366,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1398,10 +1389,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1421,10 +1412,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1444,10 +1435,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1467,10 +1458,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1490,10 +1481,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1513,10 +1504,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1536,10 +1527,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1559,10 +1550,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1582,10 +1573,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1605,10 +1596,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1628,10 +1619,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1651,10 +1642,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1674,10 +1665,10 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1697,10 +1688,10 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1720,10 +1711,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1743,10 +1734,10 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1769,7 +1760,7 @@
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1792,7 +1783,7 @@
         <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1815,7 +1806,7 @@
         <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1838,7 +1829,7 @@
         <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1861,7 +1852,7 @@
         <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1884,7 +1875,7 @@
         <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1907,7 +1898,7 @@
         <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1927,10 +1918,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1950,10 +1941,10 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1973,10 +1964,10 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1996,10 +1987,10 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2019,10 +2010,10 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2042,10 +2033,10 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2065,10 +2056,10 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2088,10 +2079,10 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2111,10 +2102,10 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2134,10 +2125,10 @@
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2157,10 +2148,10 @@
         <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2180,10 +2171,10 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2203,10 +2194,10 @@
         <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2226,10 +2217,10 @@
         <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2249,10 +2240,10 @@
         <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2272,10 +2263,10 @@
         <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2295,10 +2286,10 @@
         <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2318,10 +2309,10 @@
         <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2341,10 +2332,10 @@
         <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2364,10 +2355,10 @@
         <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2387,10 +2378,10 @@
         <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2410,10 +2401,10 @@
         <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2433,10 +2424,10 @@
         <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2456,89 +2447,66 @@
         <v>66</v>
       </c>
       <c r="F71" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="16" t="s">
+      <c r="B72" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G72" s="18">
-        <v>689455</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F73" s="24">
-        <v>23000</v>
-      </c>
-      <c r="G73" s="24">
-        <v>689455</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26"/>
+      <c r="F72" s="24">
+        <v>27083</v>
+      </c>
+      <c r="G72" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="26"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="32"/>
+      <c r="H77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C78" s="32"/>
       <c r="H78" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="H79" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B79:C79"/>
     <mergeCell ref="B78:C78"/>
-    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H77:J77"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9006978112.xlsx
+++ b/Data/EC/NIT-9006978112.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E01E371F-20D4-42CA-849E-8B3ADE3AE4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBE848F6-603D-4E7D-9D14-007268729025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{193C5640-C43B-44BF-B973-DA9AABB54E9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5E8703D7-E74F-491E-8C00-CC14351E7423}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -338,9 +338,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -353,7 +351,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -547,29 +547,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,19 +588,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358AF580-349D-4649-1BA4-041BEABF453D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDAF2AC6-7D78-FC8B-4674-630A128BE02D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1004,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739126F8-2D3B-4612-8FB8-7E8896763AE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB47686-FF11-4358-BAED-D0620F736ABD}">
   <dimension ref="B2:J78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1027,49 +1033,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1077,7 +1083,7 @@
         <v>69</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9006978112</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>1685252</v>
       </c>
@@ -1178,18 +1184,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>27578</v>
       </c>
-      <c r="G16" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1201,18 +1207,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>27578</v>
       </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1224,18 +1230,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>27578</v>
       </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1247,18 +1253,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>27578</v>
       </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1270,18 +1276,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>27578</v>
       </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1293,18 +1299,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>27578</v>
       </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1316,18 +1322,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>27578</v>
       </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1339,18 +1345,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>27578</v>
       </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1362,18 +1368,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>27578</v>
       </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1385,18 +1391,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>27578</v>
       </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1408,18 +1414,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>27578</v>
       </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1431,18 +1437,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>27578</v>
       </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1454,18 +1460,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>27578</v>
       </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1477,18 +1483,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>27578</v>
       </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1500,18 +1506,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>27578</v>
       </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1523,18 +1529,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>27578</v>
       </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1546,18 +1552,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>27578</v>
       </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1569,18 +1575,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>27578</v>
       </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1592,18 +1598,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>27578</v>
       </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1615,18 +1621,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>27578</v>
       </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1638,18 +1644,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>27578</v>
       </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1661,18 +1667,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>27578</v>
       </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1684,18 +1690,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>27578</v>
       </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1707,18 +1713,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>27578</v>
       </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1730,18 +1736,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>27578</v>
       </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1753,18 +1759,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1776,18 +1782,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1799,18 +1805,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1822,18 +1828,18 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G44" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G44" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1845,18 +1851,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1868,18 +1874,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G46" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G46" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1891,18 +1897,18 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1914,18 +1920,18 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G48" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G48" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1937,18 +1943,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1960,18 +1966,18 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G50" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G50" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1983,18 +1989,18 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2006,18 +2012,18 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G52" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G52" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2029,18 +2035,18 @@
       <c r="D53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2052,18 +2058,18 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G54" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G54" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2075,18 +2081,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2098,18 +2104,18 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G56" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G56" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2121,18 +2127,18 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2144,18 +2150,18 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G58" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G58" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2167,18 +2173,18 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2190,18 +2196,18 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G60" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G60" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2213,18 +2219,18 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2236,18 +2242,18 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F62" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G62" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G62" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2259,18 +2265,18 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F63" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2282,18 +2288,18 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F64" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G64" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G64" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2305,18 +2311,18 @@
       <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G65" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G65" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2328,18 +2334,18 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F66" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G66" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G66" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2351,18 +2357,18 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F67" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G67" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G67" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2374,18 +2380,18 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G68" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G68" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2397,18 +2403,18 @@
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G69" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2420,18 +2426,18 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G70" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G70" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2443,47 +2449,47 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F71" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G71" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G71" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="22" t="s">
+      <c r="B72" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F72" s="24">
+      <c r="F72" s="26">
         <v>27083</v>
       </c>
-      <c r="G72" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="26"/>
+      <c r="G72" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="28"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="32"/>
+      <c r="C77" s="34"/>
       <c r="H77" s="1" t="s">
         <v>77</v>
       </c>
@@ -2491,10 +2497,10 @@
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="32"/>
+      <c r="C78" s="34"/>
       <c r="H78" s="1" t="s">
         <v>78</v>
       </c>
